--- a/data/trans_dic/POLIPATOLOGIA_2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2752277287238839</v>
+        <v>0.2726758012455496</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2099478838524044</v>
+        <v>0.2117609841826222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2289328982177743</v>
+        <v>0.2330070816375944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3478426697169301</v>
+        <v>0.3429038437382796</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4089964646667072</v>
+        <v>0.4131792167309944</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4052684725354039</v>
+        <v>0.4036085570110636</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.394617936408122</v>
+        <v>0.3932139859856601</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4991579370283115</v>
+        <v>0.4946087841241433</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3650564977244802</v>
+        <v>0.3678826675615982</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3196450058542271</v>
+        <v>0.3166114244427484</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3245375852435018</v>
+        <v>0.3237176029471932</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4410271859257689</v>
+        <v>0.4447599782861705</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3513011132872824</v>
+        <v>0.352167162359655</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2643357804660626</v>
+        <v>0.2637393959769558</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2833914974489813</v>
+        <v>0.2836562886010424</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4405098898718258</v>
+        <v>0.4412915565910498</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4759412901509276</v>
+        <v>0.4790448219670653</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4660044472778896</v>
+        <v>0.46566619125437</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4523898583602203</v>
+        <v>0.4532534213977133</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5740876134239405</v>
+        <v>0.5674589101593052</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4175054495056803</v>
+        <v>0.4177028166871524</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3617196119491422</v>
+        <v>0.3599905274587474</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3632430592408638</v>
+        <v>0.3618820164508624</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4996591577664278</v>
+        <v>0.5026758277411739</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2927102548003667</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3841783248430017</v>
+        <v>0.3841783248430016</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1751526072663853</v>
+        <v>0.1755615980671749</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.219604453479251</v>
+        <v>0.2217492619396469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2118937476685535</v>
+        <v>0.211850132014969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2763502620734277</v>
+        <v>0.2771910203496109</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3020211684714234</v>
+        <v>0.3024601111164113</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3520578358620413</v>
+        <v>0.3548227689821435</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3108534688896187</v>
+        <v>0.3134682051156745</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4246690261890728</v>
+        <v>0.4226810821573287</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.245238418163129</v>
+        <v>0.2474276076293849</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2968987269483144</v>
+        <v>0.2994423594574914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2714460492502484</v>
+        <v>0.2717398815755969</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3628371886860378</v>
+        <v>0.3631200513038094</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2208081398348822</v>
+        <v>0.2237630130671943</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2788627521876342</v>
+        <v>0.2779876529074563</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2669523033111839</v>
+        <v>0.2682056272653636</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3375856678221968</v>
+        <v>0.3399821722092908</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3604663027122199</v>
+        <v>0.3614440005026942</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4158120106902428</v>
+        <v>0.4119485265000249</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3735586319429501</v>
+        <v>0.3724367777003406</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4772586856111719</v>
+        <v>0.4747761464098824</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2846993336944834</v>
+        <v>0.2875586123186557</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.340315371669861</v>
+        <v>0.3410117529090804</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3138165481593345</v>
+        <v>0.3135447310955307</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4038396415618322</v>
+        <v>0.403735593616495</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1243114985999977</v>
+        <v>0.1247372038902484</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2392779467121632</v>
+        <v>0.2434583885412993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1977051326386983</v>
+        <v>0.1952803942228245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2602492675769822</v>
+        <v>0.2605290707408704</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2298588268313609</v>
+        <v>0.227594625743091</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3308381041813908</v>
+        <v>0.3326406815248232</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2891617642161728</v>
+        <v>0.2886963203140346</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4009053705793475</v>
+        <v>0.4011418464371292</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1788180568022571</v>
+        <v>0.1774156645227906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2960632689616718</v>
+        <v>0.2962172677262597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2494656071573552</v>
+        <v>0.2486100636075708</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.336805700414299</v>
+        <v>0.3369841316868054</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1643145367558423</v>
+        <v>0.1665801657720886</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3013294546438431</v>
+        <v>0.3041799222884465</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.252331824805285</v>
+        <v>0.2566062858940595</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3144128135095956</v>
+        <v>0.3163864455010081</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2818916906050035</v>
+        <v>0.2827072309901633</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.395876147479562</v>
+        <v>0.396052286070071</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3603458493862339</v>
+        <v>0.3608902670055096</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4533598994402692</v>
+        <v>0.4542491035487332</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2132911443716931</v>
+        <v>0.2131031023876583</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3401309947758197</v>
+        <v>0.3422808524555341</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2950968031758594</v>
+        <v>0.2938583162015006</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3769173626933522</v>
+        <v>0.3763387487915413</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.261227439340854</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4008224858706133</v>
+        <v>0.4008224858706132</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1270198711806057</v>
+        <v>0.1290922551084377</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1585536770549968</v>
+        <v>0.159023847136925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1887228954816442</v>
+        <v>0.1869221364191394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3048861625413085</v>
+        <v>0.3074419824801538</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2288182673452056</v>
+        <v>0.2294218892398259</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2688346439830464</v>
+        <v>0.2737107523813984</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2581633025249281</v>
+        <v>0.2599487597895302</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4381643690311657</v>
+        <v>0.4383270093850757</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1839933489959793</v>
+        <v>0.1843617858685229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2228750992107727</v>
+        <v>0.2235994733466267</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2319996486763921</v>
+        <v>0.2337837290262648</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.37975101409169</v>
+        <v>0.3779875878050495</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1998493962342957</v>
+        <v>0.1988803672732419</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2330841505734839</v>
+        <v>0.2336499547742775</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2663662169158248</v>
+        <v>0.2609564777344203</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3722880299349682</v>
+        <v>0.3755493242308678</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3260759822655631</v>
+        <v>0.3231446190588442</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3617872380889283</v>
+        <v>0.3650143199985242</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3459282491193396</v>
+        <v>0.3442294837883786</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5004403067583932</v>
+        <v>0.4967549205516886</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2395832130389778</v>
+        <v>0.2413088035759152</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2789935203391907</v>
+        <v>0.2826869687278335</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2884522224074152</v>
+        <v>0.2913798848994402</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4245388908439485</v>
+        <v>0.4214570727800619</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3605238812959262</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4615455138305239</v>
+        <v>0.461545513830524</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2655724595913752</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.18219892994538</v>
+        <v>0.1821347791228526</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2286412128762867</v>
+        <v>0.227788997307444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2244624934781711</v>
+        <v>0.2240899190382053</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.307042389998586</v>
+        <v>0.3083689957362891</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3172430526022817</v>
+        <v>0.3165693551883645</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3696808269264252</v>
+        <v>0.3705342098876214</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3453451386398556</v>
+        <v>0.3438897810581883</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4454595415337442</v>
+        <v>0.4461988621226631</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2542656953237507</v>
+        <v>0.2552654665574178</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3050974074132524</v>
+        <v>0.30508346586951</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2894255105610896</v>
+        <v>0.2893209439113383</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3820722943827145</v>
+        <v>0.3831013457916882</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2087241141835325</v>
+        <v>0.2093005798449855</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.259943422220456</v>
+        <v>0.2583359244008409</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2530260768144916</v>
+        <v>0.2530271984995691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3397605132823075</v>
+        <v>0.3418262849529465</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3502272746853227</v>
+        <v>0.3488592545745535</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4027341439973675</v>
+        <v>0.4054641977585334</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3780512658713941</v>
+        <v>0.3766727058535411</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4753671943487068</v>
+        <v>0.4748687158397132</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2762372886184307</v>
+        <v>0.277050747057531</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3281875255010321</v>
+        <v>0.3273891994409683</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3125969159027374</v>
+        <v>0.3120926221282604</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4043649200263709</v>
+        <v>0.4065752965212813</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>160772</v>
+        <v>159281</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>219172</v>
+        <v>221065</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>258236</v>
+        <v>262831</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>173483</v>
+        <v>171020</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>377231</v>
+        <v>381089</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>453872</v>
+        <v>452013</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>497045</v>
+        <v>495277</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>311265</v>
+        <v>308428</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>549948</v>
+        <v>554206</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>691668</v>
+        <v>685104</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>774852</v>
+        <v>772895</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>494974</v>
+        <v>499163</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>205209</v>
+        <v>205715</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>275949</v>
+        <v>275327</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>319665</v>
+        <v>319963</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>219699</v>
+        <v>220089</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>438976</v>
+        <v>441839</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>521891</v>
+        <v>521513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>569813</v>
+        <v>570900</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>357990</v>
+        <v>353856</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>628961</v>
+        <v>629258</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>782712</v>
+        <v>778970</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>867264</v>
+        <v>864014</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>560777</v>
+        <v>564163</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>188796</v>
+        <v>189237</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>214570</v>
+        <v>216665</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>192574</v>
+        <v>192535</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>265334</v>
+        <v>266141</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>319399</v>
+        <v>319863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>385244</v>
+        <v>388269</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>312866</v>
+        <v>315498</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>473867</v>
+        <v>471648</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>523690</v>
+        <v>528365</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>614977</v>
+        <v>620245</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>519901</v>
+        <v>520463</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>753245</v>
+        <v>753832</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>238008</v>
+        <v>241193</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>272469</v>
+        <v>271614</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>242613</v>
+        <v>243752</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>324128</v>
+        <v>326429</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>381207</v>
+        <v>382241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>455007</v>
+        <v>450780</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>375977</v>
+        <v>374848</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>532549</v>
+        <v>529778</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>607956</v>
+        <v>614062</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>704907</v>
+        <v>706350</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>601053</v>
+        <v>600532</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>838365</v>
+        <v>838149</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>139427</v>
+        <v>139904</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>211788</v>
+        <v>215489</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>162861</v>
+        <v>160864</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>272345</v>
+        <v>272638</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>228466</v>
+        <v>226215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>289747</v>
+        <v>291325</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>222961</v>
+        <v>222602</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>420005</v>
+        <v>420253</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>378296</v>
+        <v>375329</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>521341</v>
+        <v>521612</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>397852</v>
+        <v>396488</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>705312</v>
+        <v>705686</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>184294</v>
+        <v>186835</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>266711</v>
+        <v>269234</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>207861</v>
+        <v>211382</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>329026</v>
+        <v>331092</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>280183</v>
+        <v>280994</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>346707</v>
+        <v>346861</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>277848</v>
+        <v>278268</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>474959</v>
+        <v>475890</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>451225</v>
+        <v>450827</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>598940</v>
+        <v>602726</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>470626</v>
+        <v>468651</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>789311</v>
+        <v>788099</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>56803</v>
+        <v>57730</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>79756</v>
+        <v>79993</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>95626</v>
+        <v>94714</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>297547</v>
+        <v>300042</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>78063</v>
+        <v>78269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>121711</v>
+        <v>123919</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>126422</v>
+        <v>127296</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>398881</v>
+        <v>399029</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>145053</v>
+        <v>145343</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>213015</v>
+        <v>213707</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>231164</v>
+        <v>232942</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>716314</v>
+        <v>712988</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>89373</v>
+        <v>88939</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>117247</v>
+        <v>117531</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>134968</v>
+        <v>132227</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>363327</v>
+        <v>366509</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>111243</v>
+        <v>110243</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>163794</v>
+        <v>165255</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>169400</v>
+        <v>168568</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>455573</v>
+        <v>452218</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>188877</v>
+        <v>190238</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>266650</v>
+        <v>270180</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>287413</v>
+        <v>290330</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>800797</v>
+        <v>794984</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>588654</v>
+        <v>588446</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>779471</v>
+        <v>776566</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>755829</v>
+        <v>754574</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1068902</v>
+        <v>1073520</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1051651</v>
+        <v>1049418</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1309676</v>
+        <v>1312700</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1217960</v>
+        <v>1212828</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1647049</v>
+        <v>1649783</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1664372</v>
+        <v>1670916</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2120997</v>
+        <v>2120900</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1995321</v>
+        <v>1994600</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2742783</v>
+        <v>2750170</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>674352</v>
+        <v>676214</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>886185</v>
+        <v>880705</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>852010</v>
+        <v>852014</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1182803</v>
+        <v>1189994</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1160993</v>
+        <v>1156458</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1426775</v>
+        <v>1436447</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1333308</v>
+        <v>1328446</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1757630</v>
+        <v>1755787</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1808193</v>
+        <v>1813518</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2281516</v>
+        <v>2275966</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2155067</v>
+        <v>2151590</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2902815</v>
+        <v>2918682</v>
       </c>
     </row>
     <row r="24">
